--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3360.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3360.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.228673778140944</v>
+        <v>0.7769267559051514</v>
       </c>
       <c r="B1">
-        <v>2.667770837720626</v>
+        <v>3.181809186935425</v>
       </c>
       <c r="C1">
-        <v>5.824967595798996</v>
+        <v>2.912545204162598</v>
       </c>
       <c r="D1">
-        <v>2.262690437564034</v>
+        <v>2.468739032745361</v>
       </c>
       <c r="E1">
-        <v>1.162164600038629</v>
+        <v>2.135701417922974</v>
       </c>
     </row>
   </sheetData>
